--- a/Documents/Cord/Cord Documents/4012 Confirmaion condition .xlsx
+++ b/Documents/Cord/Cord Documents/4012 Confirmaion condition .xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/Budget Traeback Cord 2022/DCC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB76B8C-128E-4F60-914F-2F248CAC2939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9E9042D-DEA7-4A56-8449-41F0827B5073}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmation P1671TT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -625,16 +619,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="188" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -716,8 +710,14 @@
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +730,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="71">
     <border>
@@ -1576,34 +1582,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1633,15 +1615,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1650,63 +1623,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,9 +1637,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1731,7 +1650,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1739,9 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1755,7 +1671,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1764,7 +1680,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,7 +1695,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1797,7 +1713,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1809,22 +1725,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="43" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1839,13 +1749,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1905,15 +1815,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1958,18 +1859,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1983,7 +1872,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2018,9 +1907,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2053,15 +1939,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2102,32 +1979,164 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A1F65EED-CF84-4207-90C8-D3AE6191D656}"/>
-    <cellStyle name="Normal 8" xfId="2" xr:uid="{8EB55122-AF3A-439D-AF5A-197C006F9F9A}"/>
-    <cellStyle name="Normal 9" xfId="3" xr:uid="{507BA7BD-73F0-418D-83CC-877239260880}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="2"/>
+    <cellStyle name="Normal 9" xfId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2162,7 +2171,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EAA84F-43C3-444A-B43B-F2367591E060}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EAA84F-43C3-444A-B43B-F2367591E060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2223,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480374C2-6B59-4D60-A7DC-50C1397F604D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480374C2-6B59-4D60-A7DC-50C1397F604D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2345,7 +2354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2539,1003 +2548,999 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BE4C1E-5FD4-45CD-B563-7E920F309CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="190" customWidth="1"/>
-    <col min="7" max="7" width="26.08203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.08203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="142" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="44.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31" t="s">
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37" t="s">
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38" t="s">
+      <c r="H7" s="177"/>
+      <c r="I7" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="182"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44" t="s">
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="184"/>
+      <c r="I8" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="161"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="48" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="56" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64" t="s">
+      <c r="H11" s="35"/>
+      <c r="I11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="165"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="64" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61" t="s">
+      <c r="A13" s="165"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="67" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="67" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="64" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="66"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69" t="s">
+      <c r="A15" s="165"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60" t="s">
+      <c r="A16" s="165"/>
+      <c r="B16" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="78" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="80"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61" t="s">
+      <c r="A17" s="165"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="64" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69" t="s">
+      <c r="A18" s="166"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="84" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="84" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="74"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:14" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="87" t="s">
+      <c r="H19" s="48"/>
+      <c r="I19" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="80"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="88" t="s">
+      <c r="A20" s="167"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="89" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="66"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
+      <c r="J20" s="36"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="60"/>
     </row>
     <row r="21" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="88" t="s">
+      <c r="A21" s="167"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="G21" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="89" t="s">
+      <c r="H21" s="34"/>
+      <c r="I21" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:14" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="93" t="s">
+      <c r="A22" s="167"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="94">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="62">
         <v>102.5</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="94">
+      <c r="H22" s="53"/>
+      <c r="I22" s="62">
         <v>102.5</v>
       </c>
-      <c r="J22" s="74"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:14" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="60" t="s">
+      <c r="A23" s="167"/>
+      <c r="B23" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="97" t="s">
+      <c r="G23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="97" t="s">
+      <c r="H23" s="66"/>
+      <c r="I23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="99"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="88" t="s">
+      <c r="A24" s="167"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="102" t="s">
+      <c r="G24" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="103"/>
-      <c r="I24" s="102" t="s">
+      <c r="H24" s="71"/>
+      <c r="I24" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="104"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="1:14" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="93" t="s">
+      <c r="A25" s="167"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="106" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="107" t="s">
+      <c r="G25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="108"/>
-      <c r="I25" s="107" t="s">
+      <c r="H25" s="76"/>
+      <c r="I25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="109"/>
+      <c r="J25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="167"/>
+      <c r="B26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97">
+      <c r="D26" s="46"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65">
         <v>29000</v>
       </c>
-      <c r="H26" s="98"/>
-      <c r="I26" s="97">
+      <c r="H26" s="66"/>
+      <c r="I26" s="65">
         <v>29000</v>
       </c>
-      <c r="J26" s="99"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="111" t="s">
+      <c r="A27" s="167"/>
+      <c r="B27" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="65" t="s">
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="65" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="72" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="41.25" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="167"/>
+      <c r="B28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="65">
+      <c r="D28" s="170"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="35">
         <v>148</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="65">
+      <c r="H28" s="71"/>
+      <c r="I28" s="35">
         <v>148</v>
       </c>
-      <c r="J28" s="104" t="s">
+      <c r="J28" s="72" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A29" s="85"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="167"/>
+      <c r="B29" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="65" t="s">
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="65" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="104" t="s">
+      <c r="J29" s="72" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A30" s="85"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="69" t="s">
+      <c r="A30" s="167"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="73" t="s">
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="108"/>
-      <c r="I30" s="73" t="s">
+      <c r="H30" s="76"/>
+      <c r="I30" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="109"/>
+      <c r="J30" s="77"/>
     </row>
     <row r="31" spans="1:14" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="111" t="s">
+      <c r="A31" s="167"/>
+      <c r="B31" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="79" t="s">
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="98"/>
-      <c r="I31" s="79" t="s">
+      <c r="H31" s="66"/>
+      <c r="I31" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="99"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="122" t="s">
+      <c r="A32" s="167"/>
+      <c r="B32" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="64">
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="34">
         <v>1</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="64">
+      <c r="H32" s="71"/>
+      <c r="I32" s="34">
         <v>1</v>
       </c>
-      <c r="J32" s="104"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="125" t="s">
+      <c r="A33" s="167"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="129" t="s">
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="130"/>
-      <c r="I33" s="129" t="s">
+      <c r="H33" s="95"/>
+      <c r="I33" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="131"/>
+      <c r="J33" s="96"/>
     </row>
     <row r="34" spans="1:10" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="132" t="s">
+      <c r="A34" s="167"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="73" t="s">
+      <c r="D34" s="173"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="73" t="s">
+      <c r="H34" s="76"/>
+      <c r="I34" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="109"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="111" t="s">
+      <c r="A35" s="167"/>
+      <c r="B35" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="120"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="99"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A36" s="85"/>
-      <c r="B36" s="122" t="s">
+      <c r="A36" s="167"/>
+      <c r="B36" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="65">
+      <c r="D36" s="88"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="35">
         <v>0</v>
       </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="65">
+      <c r="H36" s="71"/>
+      <c r="I36" s="35">
         <v>0</v>
       </c>
-      <c r="J36" s="104"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A37" s="85"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="125" t="s">
+      <c r="A37" s="167"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="129" t="s">
+      <c r="D37" s="91"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="H37" s="130"/>
-      <c r="I37" s="129" t="s">
+      <c r="H37" s="95"/>
+      <c r="I37" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="131"/>
+      <c r="J37" s="96"/>
     </row>
     <row r="38" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A38" s="135"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="132" t="s">
+      <c r="A38" s="168"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="133"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="109"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="137" t="s">
+      <c r="C39" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="138"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="140">
+      <c r="D39" s="99"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="101">
         <v>2.9952000000000001</v>
       </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="140">
+      <c r="H39" s="66"/>
+      <c r="I39" s="101">
         <v>2.9952000000000001</v>
       </c>
-      <c r="J39" s="99"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A40" s="141"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="142" t="s">
+      <c r="A40" s="102"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="143"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="65" t="s">
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="103"/>
-      <c r="I40" s="65" t="s">
+      <c r="H40" s="71"/>
+      <c r="I40" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="J40" s="104"/>
+      <c r="J40" s="72"/>
     </row>
     <row r="41" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A41" s="141"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="142" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="143"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="100" t="s">
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="103"/>
-      <c r="I41" s="100" t="s">
+      <c r="H41" s="71"/>
+      <c r="I41" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="147"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A42" s="141"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="148" t="s">
+      <c r="A42" s="102"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="152" t="s">
+      <c r="D42" s="110"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="130"/>
-      <c r="I42" s="152" t="s">
+      <c r="H42" s="95"/>
+      <c r="I42" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="J42" s="153"/>
+      <c r="J42" s="113"/>
     </row>
     <row r="43" spans="1:10" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A43" s="154"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="155" t="s">
+      <c r="A43" s="114"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="72" t="s">
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H43" s="108"/>
-      <c r="I43" s="72" t="s">
+      <c r="H43" s="76"/>
+      <c r="I43" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="156"/>
+      <c r="J43" s="116"/>
     </row>
     <row r="44" spans="1:10" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A44" s="141"/>
-      <c r="B44" s="60" t="s">
+      <c r="A44" s="102"/>
+      <c r="B44" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="157" t="s">
+      <c r="C44" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="158"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="79" t="s">
+      <c r="D44" s="118"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="79" t="s">
+      <c r="H44" s="66"/>
+      <c r="I44" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="161"/>
+      <c r="J44" s="121"/>
     </row>
     <row r="45" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="60" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="162" t="s">
+      <c r="C45" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="163"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="65" t="s">
+      <c r="D45" s="123"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="H45" s="103"/>
-      <c r="I45" s="65" t="s">
+      <c r="H45" s="71"/>
+      <c r="I45" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J45" s="147"/>
+      <c r="J45" s="108"/>
     </row>
     <row r="46" spans="1:10" ht="78" customHeight="1">
-      <c r="A46" s="141"/>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="102"/>
+      <c r="B46" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="166" t="s">
+      <c r="C46" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="167"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="65" t="s">
+      <c r="D46" s="186"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="65" t="s">
+      <c r="H46" s="80"/>
+      <c r="I46" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="147"/>
+      <c r="J46" s="108"/>
     </row>
     <row r="47" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A47" s="141"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="102"/>
+      <c r="B47" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="169" t="s">
+      <c r="C47" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="170"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="65" t="s">
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="65" t="s">
+      <c r="H47" s="80"/>
+      <c r="I47" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="J47" s="147"/>
+      <c r="J47" s="108"/>
     </row>
     <row r="48" spans="1:10" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A48" s="172"/>
-      <c r="B48" s="173"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="175"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="179"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="180"/>
+      <c r="A48" s="129"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="137"/>
     </row>
     <row r="49" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="181"/>
-      <c r="F49" s="182"/>
-      <c r="G49" s="183" t="s">
+      <c r="E49" s="138"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="184"/>
-      <c r="I49" s="183" t="s">
+      <c r="H49" s="189"/>
+      <c r="I49" s="188" t="s">
         <v>117</v>
       </c>
-      <c r="J49" s="184"/>
+      <c r="J49" s="189"/>
     </row>
     <row r="50" spans="1:10" ht="24.75" customHeight="1">
-      <c r="E50" s="181"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="185" t="s">
+      <c r="E50" s="138"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="H50" s="186"/>
-      <c r="I50" s="185" t="s">
+      <c r="H50" s="191"/>
+      <c r="I50" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="186"/>
+      <c r="J50" s="191"/>
     </row>
     <row r="51" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
-      <c r="E51" s="181"/>
-      <c r="F51" s="182"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="187"/>
-      <c r="J51" s="188"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="141"/>
     </row>
     <row r="52" spans="1:10" ht="29.25" customHeight="1">
-      <c r="E52" s="181"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="189"/>
-      <c r="J52" s="189"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="159"/>
+      <c r="J52" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="I52:J52"/>
@@ -3546,16 +3551,19 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
